--- a/tesco_ingredients.xlsx
+++ b/tesco_ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\BB Projects\food_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\BB Projects\food_bot_recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB53E23-0405-45CE-AD16-C8EAF94CEBA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEB8826-BC83-44BC-8F94-050B6C77F46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1160" windowWidth="16920" windowHeight="12790" xr2:uid="{27E00178-C54D-4EA1-B3BF-6C0E3CD891C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{27E00178-C54D-4EA1-B3BF-6C0E3CD891C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Ingredient</t>
   </si>
@@ -185,6 +185,45 @@
   </si>
   <si>
     <t>bunch</t>
+  </si>
+  <si>
+    <t>Greek yoghurt</t>
+  </si>
+  <si>
+    <t>Frozen raspberries</t>
+  </si>
+  <si>
+    <t>Wholemeal bagel</t>
+  </si>
+  <si>
+    <t>Peanut butter</t>
+  </si>
+  <si>
+    <t>White bread</t>
+  </si>
+  <si>
+    <t>Lemon marmalade</t>
+  </si>
+  <si>
+    <t>Margarine</t>
+  </si>
+  <si>
+    <t>Total 0% Fat Greek Yogurt 500G</t>
+  </si>
+  <si>
+    <t>Tesco Frozen Raspberries 350G</t>
+  </si>
+  <si>
+    <t>New York Bakery Wholemeal Bagels 5 Pack</t>
+  </si>
+  <si>
+    <t>Whole Earth Smooth Peanut Butter 1Kg</t>
+  </si>
+  <si>
+    <t>Warburtons Toastie Sliced Small White Bread 400G</t>
+  </si>
+  <si>
+    <t>Lurpak Slightly Salted Spreadable 500G</t>
   </si>
 </sst>
 </file>
@@ -557,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48719365-CA97-429F-A441-624760F3D327}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,6 +901,146 @@
       <c r="E17" s="2">
         <v>253556398</v>
       </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2">
+        <v>500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>268279288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2">
+        <v>350</v>
+      </c>
+      <c r="E19" s="2">
+        <v>251622070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>291569521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2">
+        <v>294224350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
+        <v>254942354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2">
+        <v>253886894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
